--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation-complete.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation-complete.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation-complete.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation-complete.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="802">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2012,6 +2012,12 @@
   </si>
   <si>
     <t>Chikungunya virus IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>88875-0</t>
+  </si>
+  <si>
+    <t>Measles virus genotype A vaccine strain N gene [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
     <t>89596-1</t>
@@ -2682,7 +2688,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B381"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5729,15 +5735,23 @@
         <v>786</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>788</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B382" t="s" s="2">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -5767,58 +5781,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation-complete.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation-complete.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="804">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -866,6 +866,12 @@
   </si>
   <si>
     <t>Influenza virus A hemagglutinin cDNA [Identifier] in Specimen by Sequencing</t>
+  </si>
+  <si>
+    <t>40614-0</t>
+  </si>
+  <si>
+    <t>Brucella sp Ab [Presence] in Serum by Agglutination</t>
   </si>
   <si>
     <t>40669-4</t>
@@ -2688,7 +2694,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B383"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5743,15 +5749,23 @@
         <v>788</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>790</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="B383" t="s" s="2">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -5781,58 +5795,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation-complete.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation-complete.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="806">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Nasopharynx by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>77685-6</t>
+  </si>
+  <si>
+    <t>HIV 1 and 2 IgG Ab [Identifier] in Serum or Plasma by Immunoblot</t>
   </si>
   <si>
     <t>77955-3</t>
@@ -2694,7 +2700,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B383"/>
+  <dimension ref="A1:B384"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5757,15 +5763,23 @@
         <v>790</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>792</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="B384" t="s" s="2">
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -5795,58 +5809,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation-complete.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation-complete.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
     <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="820">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1840,6 +1841,12 @@
     <t>Campylobacter coli+jejuni tuf gene [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>81868-2</t>
+  </si>
+  <si>
+    <t>PRNP gene targeted mutation analysis in Blood or Tissue by Molecular genetics method</t>
+  </si>
+  <si>
     <t>82184-3</t>
   </si>
   <si>
@@ -2432,6 +2439,42 @@
   </si>
   <si>
     <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>EP-100100-7</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder</t>
+  </si>
+  <si>
+    <t>EP-100200-5</t>
+  </si>
+  <si>
+    <t>EP-100300-3</t>
+  </si>
+  <si>
+    <t>EP-100400-1</t>
+  </si>
+  <si>
+    <t>EP-100500-8</t>
+  </si>
+  <si>
+    <t>EP-100600-6</t>
+  </si>
+  <si>
+    <t>EP-100700-4</t>
+  </si>
+  <si>
+    <t>EP-100800-2</t>
+  </si>
+  <si>
+    <t>EP-100900-0</t>
+  </si>
+  <si>
+    <t>EP-101000-8</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.756.5.30.1.129.1.5.1</t>
   </si>
 </sst>
 </file>
@@ -2700,7 +2743,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B384"/>
+  <dimension ref="A1:B385"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5771,15 +5814,23 @@
         <v>792</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>794</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="B385" t="s" s="2">
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -5809,58 +5860,179 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>819</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation-complete.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-results-laboratory-observation-complete.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="829">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2444,34 +2444,61 @@
     <t>EP-100100-7</t>
   </si>
   <si>
-    <t>FOPH emerging pathogen placeholder</t>
+    <t>FOPH emerging pathogen placeholder 1</t>
   </si>
   <si>
     <t>EP-100200-5</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 2</t>
+  </si>
+  <si>
     <t>EP-100300-3</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 3</t>
+  </si>
+  <si>
     <t>EP-100400-1</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 4</t>
+  </si>
+  <si>
     <t>EP-100500-8</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 5</t>
+  </si>
+  <si>
     <t>EP-100600-6</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 6</t>
+  </si>
+  <si>
     <t>EP-100700-4</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 7</t>
+  </si>
+  <si>
     <t>EP-100800-2</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 8</t>
+  </si>
+  <si>
     <t>EP-100900-0</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 9</t>
+  </si>
+  <si>
     <t>EP-101000-8</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder 10</t>
   </si>
   <si>
     <t>urn:oid:2.16.756.5.30.1.129.1.5.1</t>
@@ -5952,71 +5979,71 @@
         <v>810</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>809</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>809</v>
+        <v>821</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>809</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>809</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>809</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12">
@@ -6032,7 +6059,7 @@
         <v>795</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>819</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
